--- a/assets/data.xlsx
+++ b/assets/data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t-bab_bkyk8w3\Documents\VScode\node.js\fuck\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t-bab_bkyk8w3\Documents\GitHub\seikosf24.github.io\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CA50743-053E-47E1-8A9D-3F8846F4510B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{562F65F6-FE9E-4E3D-9828-31662D14AD3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="434">
   <si>
     <t>ID</t>
   </si>
@@ -127,9 +127,6 @@
     <t>c/M2A</t>
   </si>
   <si>
-    <t>*100~200円</t>
-  </si>
-  <si>
     <t>M2B</t>
   </si>
   <si>
@@ -146,9 +143,6 @@
   </si>
   <si>
     <t>c/M2B</t>
-  </si>
-  <si>
-    <t>*一回200円</t>
   </si>
   <si>
     <t>M2C</t>
@@ -330,9 +324,6 @@
     <t>c/H1B</t>
   </si>
   <si>
-    <t>*3個150円</t>
-  </si>
-  <si>
     <t>H1C</t>
   </si>
   <si>
@@ -400,9 +391,6 @@
   </si>
   <si>
     <t>c/H2A</t>
-  </si>
-  <si>
-    <t>*一食300円</t>
   </si>
   <si>
     <t>H2B</t>
@@ -954,9 +942,6 @@
     <t>b/TNC</t>
   </si>
   <si>
-    <t>一人前(約5個) 300円</t>
-  </si>
-  <si>
     <t>VLC</t>
   </si>
   <si>
@@ -1207,9 +1192,6 @@
     <t>v/URN</t>
   </si>
   <si>
-    <t>*一回50円</t>
-  </si>
-  <si>
     <t>DNK</t>
   </si>
   <si>
@@ -1229,9 +1211,6 @@
   </si>
   <si>
     <t>b/DNK</t>
-  </si>
-  <si>
-    <t>*製作体験 一回150円/スマートボール 一回50円/イライラ棒 1回50円/部誌 一個50円</t>
   </si>
   <si>
     <t>DDS</t>
@@ -1328,6 +1307,94 @@
     <t>部誌 一冊200円/おみくじ 50円</t>
     <rPh sb="17" eb="18">
       <t>エン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>公演参加費:一回300円　/　問題・解説集(データ):一つ50円</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1個100円/2個150円/3個200円</t>
+    <rPh sb="1" eb="2">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>エン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>エン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3球100~200円</t>
+    <rPh sb="1" eb="2">
+      <t>タマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一回200円</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>*一回200円</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1プレイ（3ゲーム）100円</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1プレイ(4つのゲーム全て1回ずつ)　150円</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カレー&amp;ナン　一皿300円</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1回　250円</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なし</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>同人誌　一冊500円　カバー50円</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一回50円</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>部誌　50円/部員と対局　一局50円/貸し盤　一局50円</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一人前(約5個) 300円</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>製作体験 一回200円/ミニゲーム 1回100円/部誌 一個50円(上下巻セット)</t>
+    <rPh sb="34" eb="36">
+      <t>ジョウゲ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">*は未確定 </t>
+    <rPh sb="2" eb="5">
+      <t>ミカクテイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1731,10 +1798,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H58"/>
+  <dimension ref="A1:H60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J38" sqref="J38"/>
+    <sheetView tabSelected="1" topLeftCell="D43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H63" sqref="H63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1874,703 +1941,706 @@
         <v>34</v>
       </c>
       <c r="H5" t="s">
-        <v>35</v>
+        <v>420</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" t="s">
         <v>36</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>37</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>38</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" t="s">
         <v>39</v>
       </c>
-      <c r="E6" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>40</v>
       </c>
-      <c r="G6" t="s">
-        <v>41</v>
-      </c>
       <c r="H6" t="s">
-        <v>42</v>
+        <v>422</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" t="s">
         <v>43</v>
       </c>
-      <c r="B7" t="s">
+      <c r="D7" t="s">
         <v>44</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7" t="s">
         <v>45</v>
       </c>
-      <c r="D7" t="s">
+      <c r="F7" t="s">
         <v>46</v>
       </c>
-      <c r="E7" t="s">
+      <c r="G7" t="s">
         <v>47</v>
       </c>
-      <c r="F7" t="s">
-        <v>48</v>
-      </c>
-      <c r="G7" t="s">
-        <v>49</v>
-      </c>
       <c r="H7" t="s">
-        <v>42</v>
+        <v>421</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" t="s">
         <v>50</v>
       </c>
-      <c r="B8" t="s">
+      <c r="D8" t="s">
         <v>51</v>
       </c>
-      <c r="C8" t="s">
+      <c r="E8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" t="s">
         <v>52</v>
       </c>
-      <c r="D8" t="s">
+      <c r="G8" t="s">
         <v>53</v>
       </c>
-      <c r="E8" t="s">
-        <v>50</v>
-      </c>
-      <c r="F8" t="s">
-        <v>54</v>
-      </c>
-      <c r="G8" t="s">
-        <v>55</v>
-      </c>
       <c r="H8" t="s">
-        <v>42</v>
+        <v>421</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" t="s">
         <v>56</v>
       </c>
-      <c r="B9" t="s">
+      <c r="D9" t="s">
         <v>57</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9" t="s">
         <v>58</v>
       </c>
-      <c r="D9" t="s">
+      <c r="F9" t="s">
         <v>59</v>
       </c>
-      <c r="E9" t="s">
+      <c r="G9" t="s">
         <v>60</v>
       </c>
-      <c r="F9" t="s">
+      <c r="H9" t="s">
         <v>61</v>
-      </c>
-      <c r="G9" t="s">
-        <v>62</v>
-      </c>
-      <c r="H9" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" t="s">
+        <v>63</v>
+      </c>
+      <c r="C10" t="s">
         <v>64</v>
       </c>
-      <c r="B10" t="s">
+      <c r="D10" t="s">
         <v>65</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E10" t="s">
         <v>66</v>
       </c>
-      <c r="D10" t="s">
+      <c r="F10" t="s">
         <v>67</v>
       </c>
-      <c r="E10" t="s">
+      <c r="G10" t="s">
         <v>68</v>
       </c>
-      <c r="F10" t="s">
+      <c r="H10" t="s">
         <v>69</v>
-      </c>
-      <c r="G10" t="s">
-        <v>70</v>
-      </c>
-      <c r="H10" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" t="s">
         <v>72</v>
       </c>
-      <c r="B11" t="s">
+      <c r="D11" t="s">
         <v>73</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E11" t="s">
         <v>74</v>
       </c>
-      <c r="D11" t="s">
+      <c r="F11" t="s">
         <v>75</v>
       </c>
-      <c r="E11" t="s">
+      <c r="G11" t="s">
         <v>76</v>
       </c>
-      <c r="F11" t="s">
-        <v>77</v>
-      </c>
-      <c r="G11" t="s">
-        <v>78</v>
-      </c>
       <c r="H11" t="s">
-        <v>79</v>
+        <v>423</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12" t="s">
         <v>80</v>
       </c>
-      <c r="B12" t="s">
+      <c r="D12" t="s">
         <v>81</v>
       </c>
-      <c r="C12" t="s">
+      <c r="E12" t="s">
         <v>82</v>
       </c>
-      <c r="D12" t="s">
+      <c r="F12" t="s">
         <v>83</v>
       </c>
-      <c r="E12" t="s">
+      <c r="G12" t="s">
         <v>84</v>
       </c>
-      <c r="F12" t="s">
-        <v>85</v>
-      </c>
-      <c r="G12" t="s">
-        <v>86</v>
-      </c>
       <c r="H12" t="s">
-        <v>63</v>
+        <v>424</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
+        <v>85</v>
+      </c>
+      <c r="B13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" t="s">
         <v>87</v>
       </c>
-      <c r="B13" t="s">
+      <c r="D13" t="s">
         <v>88</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13" t="s">
         <v>89</v>
       </c>
-      <c r="D13" t="s">
+      <c r="F13" t="s">
         <v>90</v>
       </c>
-      <c r="E13" t="s">
+      <c r="G13" t="s">
         <v>91</v>
       </c>
-      <c r="F13" t="s">
+      <c r="H13" t="s">
         <v>92</v>
-      </c>
-      <c r="G13" t="s">
-        <v>93</v>
-      </c>
-      <c r="H13" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
+        <v>93</v>
+      </c>
+      <c r="B14" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14" t="s">
         <v>95</v>
       </c>
-      <c r="B14" t="s">
+      <c r="D14" t="s">
         <v>96</v>
       </c>
-      <c r="C14" t="s">
+      <c r="E14" t="s">
         <v>97</v>
       </c>
-      <c r="D14" t="s">
+      <c r="F14" t="s">
         <v>98</v>
       </c>
-      <c r="E14" t="s">
+      <c r="G14" t="s">
         <v>99</v>
       </c>
-      <c r="F14" t="s">
-        <v>100</v>
-      </c>
-      <c r="G14" t="s">
-        <v>101</v>
-      </c>
       <c r="H14" t="s">
-        <v>102</v>
+        <v>419</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
+        <v>100</v>
+      </c>
+      <c r="B15" t="s">
+        <v>101</v>
+      </c>
+      <c r="C15" t="s">
+        <v>102</v>
+      </c>
+      <c r="D15" t="s">
         <v>103</v>
       </c>
-      <c r="B15" t="s">
+      <c r="E15" t="s">
         <v>104</v>
       </c>
-      <c r="C15" t="s">
+      <c r="F15" t="s">
         <v>105</v>
       </c>
-      <c r="D15" t="s">
+      <c r="G15" t="s">
         <v>106</v>
       </c>
-      <c r="E15" t="s">
+      <c r="H15" t="s">
         <v>107</v>
-      </c>
-      <c r="F15" t="s">
-        <v>108</v>
-      </c>
-      <c r="G15" t="s">
-        <v>109</v>
-      </c>
-      <c r="H15" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
+        <v>108</v>
+      </c>
+      <c r="B16" t="s">
+        <v>109</v>
+      </c>
+      <c r="C16" t="s">
+        <v>110</v>
+      </c>
+      <c r="D16" t="s">
         <v>111</v>
       </c>
-      <c r="B16" t="s">
+      <c r="E16" t="s">
         <v>112</v>
       </c>
-      <c r="C16" t="s">
+      <c r="F16" t="s">
         <v>113</v>
       </c>
-      <c r="D16" t="s">
+      <c r="G16" t="s">
         <v>114</v>
       </c>
-      <c r="E16" t="s">
+      <c r="H16" t="s">
         <v>115</v>
-      </c>
-      <c r="F16" t="s">
-        <v>116</v>
-      </c>
-      <c r="G16" t="s">
-        <v>117</v>
-      </c>
-      <c r="H16" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
+        <v>116</v>
+      </c>
+      <c r="B17" t="s">
+        <v>117</v>
+      </c>
+      <c r="C17" t="s">
+        <v>118</v>
+      </c>
+      <c r="D17" t="s">
         <v>119</v>
       </c>
-      <c r="B17" t="s">
+      <c r="E17" t="s">
         <v>120</v>
       </c>
-      <c r="C17" t="s">
+      <c r="F17" t="s">
         <v>121</v>
       </c>
-      <c r="D17" t="s">
+      <c r="G17" t="s">
         <v>122</v>
       </c>
-      <c r="E17" t="s">
-        <v>123</v>
-      </c>
-      <c r="F17" t="s">
-        <v>124</v>
-      </c>
-      <c r="G17" t="s">
-        <v>125</v>
-      </c>
       <c r="H17" t="s">
-        <v>126</v>
+        <v>425</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
+        <v>123</v>
+      </c>
+      <c r="B18" t="s">
+        <v>124</v>
+      </c>
+      <c r="C18" t="s">
+        <v>125</v>
+      </c>
+      <c r="D18" t="s">
+        <v>126</v>
+      </c>
+      <c r="E18" t="s">
         <v>127</v>
       </c>
-      <c r="B18" t="s">
+      <c r="F18" t="s">
         <v>128</v>
       </c>
-      <c r="C18" t="s">
+      <c r="G18" t="s">
         <v>129</v>
       </c>
-      <c r="D18" t="s">
+      <c r="H18" t="s">
         <v>130</v>
-      </c>
-      <c r="E18" t="s">
-        <v>131</v>
-      </c>
-      <c r="F18" t="s">
-        <v>132</v>
-      </c>
-      <c r="G18" t="s">
-        <v>133</v>
-      </c>
-      <c r="H18" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B19" t="s">
+        <v>131</v>
+      </c>
+      <c r="C19" t="s">
+        <v>132</v>
+      </c>
+      <c r="D19" t="s">
+        <v>133</v>
+      </c>
+      <c r="E19" t="s">
+        <v>116</v>
+      </c>
+      <c r="F19" t="s">
+        <v>134</v>
+      </c>
+      <c r="G19" t="s">
         <v>135</v>
       </c>
-      <c r="C19" t="s">
-        <v>136</v>
-      </c>
-      <c r="D19" t="s">
-        <v>137</v>
-      </c>
-      <c r="E19" t="s">
-        <v>119</v>
-      </c>
-      <c r="F19" t="s">
-        <v>138</v>
-      </c>
-      <c r="G19" t="s">
-        <v>139</v>
-      </c>
       <c r="H19" t="s">
-        <v>79</v>
+        <v>426</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
+        <v>136</v>
+      </c>
+      <c r="B20" t="s">
+        <v>137</v>
+      </c>
+      <c r="C20" t="s">
+        <v>138</v>
+      </c>
+      <c r="D20" t="s">
+        <v>139</v>
+      </c>
+      <c r="E20" t="s">
         <v>140</v>
       </c>
-      <c r="B20" t="s">
+      <c r="F20" t="s">
         <v>141</v>
       </c>
-      <c r="C20" t="s">
+      <c r="G20" t="s">
         <v>142</v>
       </c>
-      <c r="D20" t="s">
+      <c r="H20" t="s">
         <v>143</v>
-      </c>
-      <c r="E20" t="s">
-        <v>144</v>
-      </c>
-      <c r="F20" t="s">
-        <v>145</v>
-      </c>
-      <c r="G20" t="s">
-        <v>146</v>
-      </c>
-      <c r="H20" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
+        <v>144</v>
+      </c>
+      <c r="B21" t="s">
+        <v>145</v>
+      </c>
+      <c r="C21" t="s">
+        <v>146</v>
+      </c>
+      <c r="D21" t="s">
+        <v>147</v>
+      </c>
+      <c r="E21" t="s">
         <v>148</v>
       </c>
-      <c r="B21" t="s">
+      <c r="F21" t="s">
         <v>149</v>
       </c>
-      <c r="C21" t="s">
+      <c r="G21" t="s">
         <v>150</v>
       </c>
-      <c r="D21" t="s">
+      <c r="H21" t="s">
         <v>151</v>
-      </c>
-      <c r="E21" t="s">
-        <v>152</v>
-      </c>
-      <c r="F21" t="s">
-        <v>153</v>
-      </c>
-      <c r="G21" t="s">
-        <v>154</v>
-      </c>
-      <c r="H21" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
+        <v>152</v>
+      </c>
+      <c r="B22" t="s">
+        <v>153</v>
+      </c>
+      <c r="C22" t="s">
+        <v>154</v>
+      </c>
+      <c r="D22" t="s">
+        <v>155</v>
+      </c>
+      <c r="E22" t="s">
         <v>156</v>
       </c>
-      <c r="B22" t="s">
+      <c r="F22" t="s">
         <v>157</v>
       </c>
-      <c r="C22" t="s">
+      <c r="G22" t="s">
         <v>158</v>
       </c>
-      <c r="D22" t="s">
+      <c r="H22" t="s">
         <v>159</v>
-      </c>
-      <c r="E22" t="s">
-        <v>160</v>
-      </c>
-      <c r="F22" t="s">
-        <v>161</v>
-      </c>
-      <c r="G22" t="s">
-        <v>162</v>
-      </c>
-      <c r="H22" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
+        <v>160</v>
+      </c>
+      <c r="B23" t="s">
+        <v>161</v>
+      </c>
+      <c r="C23" t="s">
+        <v>162</v>
+      </c>
+      <c r="D23" t="s">
+        <v>163</v>
+      </c>
+      <c r="E23" t="s">
+        <v>78</v>
+      </c>
+      <c r="F23" t="s">
         <v>164</v>
       </c>
-      <c r="B23" t="s">
+      <c r="G23" t="s">
         <v>165</v>
       </c>
-      <c r="C23" t="s">
+      <c r="H23" t="s">
         <v>166</v>
-      </c>
-      <c r="D23" t="s">
-        <v>167</v>
-      </c>
-      <c r="E23" t="s">
-        <v>80</v>
-      </c>
-      <c r="F23" t="s">
-        <v>168</v>
-      </c>
-      <c r="G23" t="s">
-        <v>169</v>
-      </c>
-      <c r="H23" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
+        <v>167</v>
+      </c>
+      <c r="B24" t="s">
+        <v>168</v>
+      </c>
+      <c r="C24" t="s">
+        <v>169</v>
+      </c>
+      <c r="D24" t="s">
+        <v>170</v>
+      </c>
+      <c r="E24" t="s">
         <v>171</v>
       </c>
-      <c r="B24" t="s">
+      <c r="F24" t="s">
         <v>172</v>
       </c>
-      <c r="C24" t="s">
+      <c r="G24" t="s">
         <v>173</v>
       </c>
-      <c r="D24" t="s">
+      <c r="H24" t="s">
         <v>174</v>
-      </c>
-      <c r="E24" t="s">
-        <v>175</v>
-      </c>
-      <c r="F24" t="s">
-        <v>176</v>
-      </c>
-      <c r="G24" t="s">
-        <v>177</v>
-      </c>
-      <c r="H24" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
+        <v>175</v>
+      </c>
+      <c r="B25" t="s">
+        <v>176</v>
+      </c>
+      <c r="C25" t="s">
+        <v>177</v>
+      </c>
+      <c r="D25" t="s">
+        <v>178</v>
+      </c>
+      <c r="E25" t="s">
         <v>179</v>
       </c>
-      <c r="B25" t="s">
+      <c r="F25" t="s">
         <v>180</v>
       </c>
-      <c r="C25" t="s">
+      <c r="G25" t="s">
         <v>181</v>
       </c>
-      <c r="D25" t="s">
+      <c r="H25" t="s">
         <v>182</v>
-      </c>
-      <c r="E25" t="s">
-        <v>183</v>
-      </c>
-      <c r="F25" t="s">
-        <v>184</v>
-      </c>
-      <c r="G25" t="s">
-        <v>185</v>
-      </c>
-      <c r="H25" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
+        <v>183</v>
+      </c>
+      <c r="B26" t="s">
+        <v>184</v>
+      </c>
+      <c r="C26" t="s">
+        <v>185</v>
+      </c>
+      <c r="D26" t="s">
+        <v>186</v>
+      </c>
+      <c r="E26" t="s">
+        <v>108</v>
+      </c>
+      <c r="F26" t="s">
         <v>187</v>
       </c>
-      <c r="B26" t="s">
+      <c r="G26" t="s">
         <v>188</v>
       </c>
-      <c r="C26" t="s">
-        <v>189</v>
-      </c>
-      <c r="D26" t="s">
-        <v>190</v>
-      </c>
-      <c r="E26" t="s">
-        <v>111</v>
-      </c>
-      <c r="F26" t="s">
-        <v>191</v>
-      </c>
-      <c r="G26" t="s">
-        <v>192</v>
-      </c>
       <c r="H26" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
+        <v>189</v>
+      </c>
+      <c r="B27" t="s">
+        <v>190</v>
+      </c>
+      <c r="C27" t="s">
+        <v>191</v>
+      </c>
+      <c r="D27" t="s">
+        <v>192</v>
+      </c>
+      <c r="E27" t="s">
         <v>193</v>
       </c>
-      <c r="B27" t="s">
+      <c r="F27" t="s">
         <v>194</v>
       </c>
-      <c r="C27" t="s">
+      <c r="G27" t="s">
         <v>195</v>
       </c>
-      <c r="D27" t="s">
-        <v>196</v>
-      </c>
-      <c r="E27" t="s">
-        <v>197</v>
-      </c>
-      <c r="F27" t="s">
-        <v>198</v>
-      </c>
-      <c r="G27" t="s">
-        <v>199</v>
+      <c r="H27" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
+        <v>196</v>
+      </c>
+      <c r="B28" t="s">
+        <v>197</v>
+      </c>
+      <c r="C28" t="s">
+        <v>198</v>
+      </c>
+      <c r="D28" t="s">
+        <v>199</v>
+      </c>
+      <c r="E28" t="s">
         <v>200</v>
       </c>
-      <c r="B28" t="s">
+      <c r="F28" t="s">
         <v>201</v>
       </c>
-      <c r="C28" t="s">
+      <c r="G28" t="s">
         <v>202</v>
       </c>
-      <c r="D28" t="s">
-        <v>203</v>
-      </c>
-      <c r="E28" t="s">
-        <v>204</v>
-      </c>
-      <c r="F28" t="s">
-        <v>205</v>
-      </c>
-      <c r="G28" t="s">
-        <v>206</v>
-      </c>
       <c r="H28" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
+        <v>203</v>
+      </c>
+      <c r="B29" t="s">
+        <v>204</v>
+      </c>
+      <c r="C29" t="s">
+        <v>205</v>
+      </c>
+      <c r="D29" t="s">
+        <v>206</v>
+      </c>
+      <c r="E29" t="s">
         <v>207</v>
       </c>
-      <c r="B29" t="s">
+      <c r="F29" t="s">
         <v>208</v>
       </c>
-      <c r="C29" t="s">
+      <c r="G29" t="s">
         <v>209</v>
       </c>
-      <c r="D29" t="s">
-        <v>210</v>
-      </c>
-      <c r="E29" t="s">
-        <v>211</v>
-      </c>
-      <c r="F29" t="s">
-        <v>212</v>
-      </c>
-      <c r="G29" t="s">
-        <v>213</v>
-      </c>
       <c r="H29" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
+        <v>210</v>
+      </c>
+      <c r="B30" t="s">
+        <v>211</v>
+      </c>
+      <c r="C30" t="s">
+        <v>212</v>
+      </c>
+      <c r="D30" t="s">
+        <v>213</v>
+      </c>
+      <c r="E30" t="s">
         <v>214</v>
       </c>
-      <c r="B30" t="s">
+      <c r="F30" t="s">
         <v>215</v>
       </c>
-      <c r="C30" t="s">
+      <c r="G30" t="s">
         <v>216</v>
       </c>
-      <c r="D30" t="s">
+      <c r="H30" t="s">
         <v>217</v>
-      </c>
-      <c r="E30" t="s">
-        <v>218</v>
-      </c>
-      <c r="F30" t="s">
-        <v>219</v>
-      </c>
-      <c r="G30" t="s">
-        <v>220</v>
-      </c>
-      <c r="H30" t="s">
-        <v>221</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
+        <v>218</v>
+      </c>
+      <c r="B31" t="s">
+        <v>219</v>
+      </c>
+      <c r="C31" t="s">
+        <v>220</v>
+      </c>
+      <c r="D31" t="s">
+        <v>221</v>
+      </c>
+      <c r="E31" t="s">
         <v>222</v>
       </c>
-      <c r="B31" t="s">
+      <c r="F31" t="s">
         <v>223</v>
       </c>
-      <c r="C31" t="s">
+      <c r="G31" t="s">
         <v>224</v>
       </c>
-      <c r="D31" t="s">
+      <c r="H31" t="s">
         <v>225</v>
-      </c>
-      <c r="E31" t="s">
-        <v>226</v>
-      </c>
-      <c r="F31" t="s">
-        <v>227</v>
-      </c>
-      <c r="G31" t="s">
-        <v>228</v>
-      </c>
-      <c r="H31" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
+        <v>226</v>
+      </c>
+      <c r="B32" t="s">
+        <v>227</v>
+      </c>
+      <c r="C32" t="s">
+        <v>228</v>
+      </c>
+      <c r="D32" t="s">
+        <v>229</v>
+      </c>
+      <c r="E32" t="s">
+        <v>144</v>
+      </c>
+      <c r="F32" t="s">
         <v>230</v>
       </c>
-      <c r="B32" t="s">
+      <c r="G32" t="s">
         <v>231</v>
-      </c>
-      <c r="C32" t="s">
-        <v>232</v>
-      </c>
-      <c r="D32" t="s">
-        <v>233</v>
-      </c>
-      <c r="E32" t="s">
-        <v>148</v>
-      </c>
-      <c r="F32" t="s">
-        <v>234</v>
-      </c>
-      <c r="G32" t="s">
-        <v>235</v>
       </c>
       <c r="H32" t="s">
         <v>22</v>
@@ -2578,415 +2648,415 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
+        <v>232</v>
+      </c>
+      <c r="B33" t="s">
+        <v>233</v>
+      </c>
+      <c r="C33" t="s">
+        <v>234</v>
+      </c>
+      <c r="D33" t="s">
+        <v>235</v>
+      </c>
+      <c r="E33" t="s">
         <v>236</v>
       </c>
-      <c r="B33" t="s">
+      <c r="F33" t="s">
         <v>237</v>
       </c>
-      <c r="C33" t="s">
+      <c r="G33" t="s">
         <v>238</v>
       </c>
-      <c r="D33" t="s">
+      <c r="H33" t="s">
         <v>239</v>
-      </c>
-      <c r="E33" t="s">
-        <v>240</v>
-      </c>
-      <c r="F33" t="s">
-        <v>241</v>
-      </c>
-      <c r="G33" t="s">
-        <v>242</v>
-      </c>
-      <c r="H33" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
+        <v>240</v>
+      </c>
+      <c r="B34" t="s">
+        <v>241</v>
+      </c>
+      <c r="C34" t="s">
+        <v>242</v>
+      </c>
+      <c r="D34" t="s">
+        <v>243</v>
+      </c>
+      <c r="E34" t="s">
         <v>244</v>
       </c>
-      <c r="B34" t="s">
+      <c r="F34" t="s">
         <v>245</v>
       </c>
-      <c r="C34" t="s">
+      <c r="G34" t="s">
         <v>246</v>
       </c>
-      <c r="D34" t="s">
+      <c r="H34" t="s">
         <v>247</v>
-      </c>
-      <c r="E34" t="s">
-        <v>248</v>
-      </c>
-      <c r="F34" t="s">
-        <v>249</v>
-      </c>
-      <c r="G34" t="s">
-        <v>250</v>
-      </c>
-      <c r="H34" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
+        <v>248</v>
+      </c>
+      <c r="B35" t="s">
+        <v>249</v>
+      </c>
+      <c r="C35" t="s">
+        <v>250</v>
+      </c>
+      <c r="D35" t="s">
+        <v>251</v>
+      </c>
+      <c r="E35" t="s">
         <v>252</v>
       </c>
-      <c r="B35" t="s">
+      <c r="F35" t="s">
         <v>253</v>
       </c>
-      <c r="C35" t="s">
+      <c r="G35" t="s">
         <v>254</v>
       </c>
-      <c r="D35" t="s">
+      <c r="H35" t="s">
         <v>255</v>
-      </c>
-      <c r="E35" t="s">
-        <v>256</v>
-      </c>
-      <c r="F35" t="s">
-        <v>257</v>
-      </c>
-      <c r="G35" t="s">
-        <v>258</v>
-      </c>
-      <c r="H35" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
+        <v>256</v>
+      </c>
+      <c r="B36" t="s">
+        <v>257</v>
+      </c>
+      <c r="C36" t="s">
+        <v>258</v>
+      </c>
+      <c r="D36" t="s">
+        <v>259</v>
+      </c>
+      <c r="E36" t="s">
+        <v>62</v>
+      </c>
+      <c r="F36" t="s">
         <v>260</v>
       </c>
-      <c r="B36" t="s">
+      <c r="G36" t="s">
         <v>261</v>
       </c>
-      <c r="C36" t="s">
+      <c r="H36" t="s">
         <v>262</v>
-      </c>
-      <c r="D36" t="s">
-        <v>263</v>
-      </c>
-      <c r="E36" t="s">
-        <v>64</v>
-      </c>
-      <c r="F36" t="s">
-        <v>264</v>
-      </c>
-      <c r="G36" t="s">
-        <v>265</v>
-      </c>
-      <c r="H36" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
+        <v>263</v>
+      </c>
+      <c r="B37" t="s">
+        <v>264</v>
+      </c>
+      <c r="C37" t="s">
+        <v>264</v>
+      </c>
+      <c r="D37" t="s">
+        <v>265</v>
+      </c>
+      <c r="E37" t="s">
+        <v>54</v>
+      </c>
+      <c r="F37" t="s">
+        <v>266</v>
+      </c>
+      <c r="G37" t="s">
         <v>267</v>
       </c>
-      <c r="B37" t="s">
+      <c r="H37" t="s">
         <v>268</v>
-      </c>
-      <c r="C37" t="s">
-        <v>268</v>
-      </c>
-      <c r="D37" t="s">
-        <v>269</v>
-      </c>
-      <c r="E37" t="s">
-        <v>56</v>
-      </c>
-      <c r="F37" t="s">
-        <v>270</v>
-      </c>
-      <c r="G37" t="s">
-        <v>271</v>
-      </c>
-      <c r="H37" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
+        <v>269</v>
+      </c>
+      <c r="B38" t="s">
+        <v>270</v>
+      </c>
+      <c r="C38" t="s">
+        <v>271</v>
+      </c>
+      <c r="D38" t="s">
+        <v>272</v>
+      </c>
+      <c r="E38" t="s">
         <v>273</v>
       </c>
-      <c r="B38" t="s">
+      <c r="F38" t="s">
         <v>274</v>
       </c>
-      <c r="C38" t="s">
+      <c r="G38" t="s">
         <v>275</v>
       </c>
-      <c r="D38" t="s">
+      <c r="H38" t="s">
         <v>276</v>
-      </c>
-      <c r="E38" t="s">
-        <v>277</v>
-      </c>
-      <c r="F38" t="s">
-        <v>278</v>
-      </c>
-      <c r="G38" t="s">
-        <v>279</v>
-      </c>
-      <c r="H38" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
+        <v>277</v>
+      </c>
+      <c r="B39" t="s">
+        <v>278</v>
+      </c>
+      <c r="C39" t="s">
+        <v>279</v>
+      </c>
+      <c r="D39" t="s">
+        <v>280</v>
+      </c>
+      <c r="E39" t="s">
         <v>281</v>
       </c>
-      <c r="B39" t="s">
+      <c r="F39" t="s">
         <v>282</v>
       </c>
-      <c r="C39" t="s">
+      <c r="G39" t="s">
         <v>283</v>
       </c>
-      <c r="D39" t="s">
+      <c r="H39" t="s">
         <v>284</v>
-      </c>
-      <c r="E39" t="s">
-        <v>285</v>
-      </c>
-      <c r="F39" t="s">
-        <v>286</v>
-      </c>
-      <c r="G39" t="s">
-        <v>287</v>
-      </c>
-      <c r="H39" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
+        <v>285</v>
+      </c>
+      <c r="B40" t="s">
+        <v>286</v>
+      </c>
+      <c r="C40" t="s">
+        <v>287</v>
+      </c>
+      <c r="D40" t="s">
+        <v>288</v>
+      </c>
+      <c r="E40" t="s">
+        <v>100</v>
+      </c>
+      <c r="F40" t="s">
         <v>289</v>
       </c>
-      <c r="B40" t="s">
+      <c r="G40" t="s">
         <v>290</v>
       </c>
-      <c r="C40" t="s">
-        <v>291</v>
-      </c>
-      <c r="D40" t="s">
-        <v>292</v>
-      </c>
-      <c r="E40" t="s">
-        <v>103</v>
-      </c>
-      <c r="F40" t="s">
-        <v>293</v>
-      </c>
-      <c r="G40" t="s">
-        <v>294</v>
-      </c>
       <c r="H40" t="s">
-        <v>22</v>
+        <v>430</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
+        <v>291</v>
+      </c>
+      <c r="B41" t="s">
+        <v>292</v>
+      </c>
+      <c r="C41" t="s">
+        <v>293</v>
+      </c>
+      <c r="D41" t="s">
+        <v>294</v>
+      </c>
+      <c r="E41" t="s">
         <v>295</v>
       </c>
-      <c r="B41" t="s">
+      <c r="F41" t="s">
         <v>296</v>
       </c>
-      <c r="C41" t="s">
+      <c r="G41" t="s">
         <v>297</v>
       </c>
-      <c r="D41" t="s">
-        <v>298</v>
-      </c>
-      <c r="E41" t="s">
-        <v>299</v>
-      </c>
-      <c r="F41" t="s">
-        <v>300</v>
-      </c>
-      <c r="G41" t="s">
-        <v>301</v>
-      </c>
       <c r="H41" t="s">
-        <v>79</v>
+        <v>421</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
+        <v>298</v>
+      </c>
+      <c r="B42" t="s">
+        <v>299</v>
+      </c>
+      <c r="C42" t="s">
+        <v>300</v>
+      </c>
+      <c r="D42" t="s">
+        <v>301</v>
+      </c>
+      <c r="E42" t="s">
         <v>302</v>
       </c>
-      <c r="B42" t="s">
+      <c r="F42" t="s">
         <v>303</v>
       </c>
-      <c r="C42" t="s">
+      <c r="G42" t="s">
         <v>304</v>
       </c>
-      <c r="D42" t="s">
-        <v>305</v>
-      </c>
-      <c r="E42" t="s">
-        <v>306</v>
-      </c>
-      <c r="F42" t="s">
-        <v>307</v>
-      </c>
-      <c r="G42" t="s">
-        <v>308</v>
-      </c>
       <c r="H42" t="s">
-        <v>309</v>
+        <v>431</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
+        <v>305</v>
+      </c>
+      <c r="B43" t="s">
+        <v>306</v>
+      </c>
+      <c r="C43" t="s">
+        <v>307</v>
+      </c>
+      <c r="D43" t="s">
+        <v>308</v>
+      </c>
+      <c r="E43" t="s">
+        <v>309</v>
+      </c>
+      <c r="F43" t="s">
         <v>310</v>
       </c>
-      <c r="B43" t="s">
+      <c r="G43" t="s">
         <v>311</v>
       </c>
-      <c r="C43" t="s">
+      <c r="H43" t="s">
         <v>312</v>
-      </c>
-      <c r="D43" t="s">
-        <v>313</v>
-      </c>
-      <c r="E43" t="s">
-        <v>314</v>
-      </c>
-      <c r="F43" t="s">
-        <v>315</v>
-      </c>
-      <c r="G43" t="s">
-        <v>316</v>
-      </c>
-      <c r="H43" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
+        <v>313</v>
+      </c>
+      <c r="B44" t="s">
+        <v>314</v>
+      </c>
+      <c r="C44" t="s">
+        <v>315</v>
+      </c>
+      <c r="D44" t="s">
+        <v>316</v>
+      </c>
+      <c r="E44" t="s">
+        <v>317</v>
+      </c>
+      <c r="F44" t="s">
         <v>318</v>
       </c>
-      <c r="B44" t="s">
+      <c r="G44" t="s">
         <v>319</v>
       </c>
-      <c r="C44" t="s">
+      <c r="H44" t="s">
         <v>320</v>
-      </c>
-      <c r="D44" t="s">
-        <v>321</v>
-      </c>
-      <c r="E44" t="s">
-        <v>322</v>
-      </c>
-      <c r="F44" t="s">
-        <v>323</v>
-      </c>
-      <c r="G44" t="s">
-        <v>324</v>
-      </c>
-      <c r="H44" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
+        <v>321</v>
+      </c>
+      <c r="B45" t="s">
+        <v>322</v>
+      </c>
+      <c r="C45" t="s">
+        <v>323</v>
+      </c>
+      <c r="D45" t="s">
+        <v>324</v>
+      </c>
+      <c r="E45" t="s">
+        <v>85</v>
+      </c>
+      <c r="F45" t="s">
+        <v>325</v>
+      </c>
+      <c r="G45" t="s">
         <v>326</v>
       </c>
-      <c r="B45" t="s">
-        <v>327</v>
-      </c>
-      <c r="C45" t="s">
-        <v>328</v>
-      </c>
-      <c r="D45" t="s">
-        <v>329</v>
-      </c>
-      <c r="E45" t="s">
-        <v>87</v>
-      </c>
-      <c r="F45" t="s">
-        <v>330</v>
-      </c>
-      <c r="G45" t="s">
-        <v>331</v>
-      </c>
       <c r="H45" t="s">
-        <v>79</v>
+        <v>418</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
+        <v>327</v>
+      </c>
+      <c r="B46" t="s">
+        <v>328</v>
+      </c>
+      <c r="C46" t="s">
+        <v>329</v>
+      </c>
+      <c r="D46" t="s">
+        <v>330</v>
+      </c>
+      <c r="E46" t="s">
+        <v>331</v>
+      </c>
+      <c r="F46" t="s">
         <v>332</v>
       </c>
-      <c r="B46" t="s">
+      <c r="G46" t="s">
         <v>333</v>
       </c>
-      <c r="C46" t="s">
+      <c r="H46" t="s">
         <v>334</v>
-      </c>
-      <c r="D46" t="s">
-        <v>335</v>
-      </c>
-      <c r="E46" t="s">
-        <v>336</v>
-      </c>
-      <c r="F46" t="s">
-        <v>337</v>
-      </c>
-      <c r="G46" t="s">
-        <v>338</v>
-      </c>
-      <c r="H46" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="B47" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="C47" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="D47" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="E47" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="F47" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="G47" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="H47" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
+        <v>340</v>
+      </c>
+      <c r="B48" t="s">
+        <v>341</v>
+      </c>
+      <c r="C48" t="s">
+        <v>342</v>
+      </c>
+      <c r="D48" t="s">
+        <v>343</v>
+      </c>
+      <c r="E48" t="s">
+        <v>344</v>
+      </c>
+      <c r="F48" t="s">
         <v>345</v>
       </c>
-      <c r="B48" t="s">
+      <c r="G48" t="s">
         <v>346</v>
-      </c>
-      <c r="C48" t="s">
-        <v>347</v>
-      </c>
-      <c r="D48" t="s">
-        <v>348</v>
-      </c>
-      <c r="E48" t="s">
-        <v>349</v>
-      </c>
-      <c r="F48" t="s">
-        <v>350</v>
-      </c>
-      <c r="G48" t="s">
-        <v>351</v>
       </c>
       <c r="H48" t="s">
         <v>22</v>
@@ -2994,129 +3064,129 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
+        <v>347</v>
+      </c>
+      <c r="B49" t="s">
+        <v>348</v>
+      </c>
+      <c r="C49" t="s">
+        <v>349</v>
+      </c>
+      <c r="D49" t="s">
+        <v>350</v>
+      </c>
+      <c r="E49" t="s">
+        <v>351</v>
+      </c>
+      <c r="F49" t="s">
         <v>352</v>
       </c>
-      <c r="B49" t="s">
+      <c r="G49" t="s">
         <v>353</v>
       </c>
-      <c r="C49" t="s">
-        <v>354</v>
-      </c>
-      <c r="D49" t="s">
-        <v>355</v>
-      </c>
-      <c r="E49" t="s">
-        <v>356</v>
-      </c>
-      <c r="F49" t="s">
-        <v>357</v>
-      </c>
-      <c r="G49" t="s">
-        <v>358</v>
-      </c>
       <c r="H49" t="s">
-        <v>79</v>
+        <v>428</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
+        <v>354</v>
+      </c>
+      <c r="B50" t="s">
+        <v>355</v>
+      </c>
+      <c r="C50" t="s">
+        <v>356</v>
+      </c>
+      <c r="D50" t="s">
+        <v>357</v>
+      </c>
+      <c r="E50" t="s">
+        <v>358</v>
+      </c>
+      <c r="F50" t="s">
+        <v>46</v>
+      </c>
+      <c r="G50" t="s">
         <v>359</v>
       </c>
-      <c r="B50" t="s">
+      <c r="H50" t="s">
         <v>360</v>
-      </c>
-      <c r="C50" t="s">
-        <v>361</v>
-      </c>
-      <c r="D50" t="s">
-        <v>362</v>
-      </c>
-      <c r="E50" t="s">
-        <v>363</v>
-      </c>
-      <c r="F50" t="s">
-        <v>48</v>
-      </c>
-      <c r="G50" t="s">
-        <v>364</v>
-      </c>
-      <c r="H50" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="B51" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="C51" t="s">
         <v>25</v>
       </c>
       <c r="D51" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="E51" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="F51" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="G51" t="s">
-        <v>371</v>
+        <v>366</v>
       </c>
       <c r="H51" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
+        <v>367</v>
+      </c>
+      <c r="B52" t="s">
+        <v>368</v>
+      </c>
+      <c r="C52" t="s">
+        <v>368</v>
+      </c>
+      <c r="D52" t="s">
+        <v>369</v>
+      </c>
+      <c r="E52" t="s">
+        <v>370</v>
+      </c>
+      <c r="F52" t="s">
+        <v>371</v>
+      </c>
+      <c r="G52" t="s">
         <v>372</v>
       </c>
-      <c r="B52" t="s">
+      <c r="H52" t="s">
         <v>373</v>
-      </c>
-      <c r="C52" t="s">
-        <v>373</v>
-      </c>
-      <c r="D52" t="s">
-        <v>374</v>
-      </c>
-      <c r="E52" t="s">
-        <v>375</v>
-      </c>
-      <c r="F52" t="s">
-        <v>376</v>
-      </c>
-      <c r="G52" t="s">
-        <v>377</v>
-      </c>
-      <c r="H52" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
+        <v>374</v>
+      </c>
+      <c r="B53" t="s">
+        <v>375</v>
+      </c>
+      <c r="C53" t="s">
+        <v>376</v>
+      </c>
+      <c r="D53" t="s">
+        <v>377</v>
+      </c>
+      <c r="E53" t="s">
+        <v>378</v>
+      </c>
+      <c r="F53" t="s">
         <v>379</v>
       </c>
-      <c r="B53" t="s">
+      <c r="G53" t="s">
         <v>380</v>
-      </c>
-      <c r="C53" t="s">
-        <v>381</v>
-      </c>
-      <c r="D53" t="s">
-        <v>382</v>
-      </c>
-      <c r="E53" t="s">
-        <v>383</v>
-      </c>
-      <c r="F53" t="s">
-        <v>384</v>
-      </c>
-      <c r="G53" t="s">
-        <v>385</v>
       </c>
       <c r="H53" t="s">
         <v>22</v>
@@ -3124,132 +3194,137 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
+        <v>381</v>
+      </c>
+      <c r="B54" t="s">
+        <v>382</v>
+      </c>
+      <c r="C54" t="s">
+        <v>383</v>
+      </c>
+      <c r="D54" t="s">
+        <v>384</v>
+      </c>
+      <c r="E54" t="s">
+        <v>385</v>
+      </c>
+      <c r="F54" t="s">
         <v>386</v>
       </c>
-      <c r="B54" t="s">
+      <c r="G54" t="s">
         <v>387</v>
       </c>
-      <c r="C54" t="s">
-        <v>388</v>
-      </c>
-      <c r="D54" t="s">
-        <v>389</v>
-      </c>
-      <c r="E54" t="s">
-        <v>390</v>
-      </c>
-      <c r="F54" t="s">
-        <v>391</v>
-      </c>
-      <c r="G54" t="s">
-        <v>392</v>
-      </c>
       <c r="H54" t="s">
-        <v>393</v>
+        <v>429</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
+        <v>388</v>
+      </c>
+      <c r="B55" t="s">
+        <v>389</v>
+      </c>
+      <c r="C55" t="s">
+        <v>390</v>
+      </c>
+      <c r="D55" t="s">
+        <v>391</v>
+      </c>
+      <c r="E55" t="s">
+        <v>392</v>
+      </c>
+      <c r="F55" t="s">
+        <v>393</v>
+      </c>
+      <c r="G55" t="s">
         <v>394</v>
       </c>
-      <c r="B55" t="s">
-        <v>395</v>
-      </c>
-      <c r="C55" t="s">
-        <v>396</v>
-      </c>
-      <c r="D55" t="s">
-        <v>397</v>
-      </c>
-      <c r="E55" t="s">
-        <v>398</v>
-      </c>
-      <c r="F55" t="s">
-        <v>399</v>
-      </c>
-      <c r="G55" t="s">
-        <v>400</v>
-      </c>
       <c r="H55" t="s">
-        <v>401</v>
+        <v>432</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="B56" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="C56" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="D56" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="E56" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="F56" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="G56" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="H56" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="B57" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="C57" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="D57" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="E57" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="F57" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
       <c r="G57" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="H57" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="B58" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="C58" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="D58" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="E58" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="F58" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="G58" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="H58" t="s">
-        <v>79</v>
+        <v>77</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="H60" t="s">
+        <v>433</v>
       </c>
     </row>
   </sheetData>

--- a/assets/data.xlsx
+++ b/assets/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t-bab_bkyk8w3\Documents\GitHub\seikosf24.github.io\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{562F65F6-FE9E-4E3D-9828-31662D14AD3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16871E41-9E31-4FCA-A4EE-5682033CFA8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="435">
   <si>
     <t>ID</t>
   </si>
@@ -1382,19 +1382,35 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>製作体験 一回200円/ミニゲーム 1回100円/部誌 一個50円(上下巻セット)</t>
+    <t xml:space="preserve">*は未確定 </t>
+    <rPh sb="2" eb="5">
+      <t>ミカクテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>製作体験 一回200円/ミニゲーム 1回100円/部誌 一個50円(上下巻セット)/LED装置一個200円</t>
     <rPh sb="34" eb="36">
       <t>ジョウゲ</t>
     </rPh>
     <rPh sb="36" eb="37">
       <t>カン</t>
     </rPh>
+    <rPh sb="45" eb="47">
+      <t>ソウチ</t>
+    </rPh>
+    <rPh sb="47" eb="49">
+      <t>イッコ</t>
+    </rPh>
+    <rPh sb="52" eb="53">
+      <t>エン</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">*は未確定 </t>
-    <rPh sb="2" eb="5">
-      <t>ミカクテイ</t>
+    <t>一個200円</t>
+    <rPh sb="5" eb="6">
+      <t>エン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1800,8 +1816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D43" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H63" sqref="H63"/>
+    <sheetView tabSelected="1" topLeftCell="D34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H60" sqref="H60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -3241,7 +3257,7 @@
         <v>394</v>
       </c>
       <c r="H55" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.4">
@@ -3267,7 +3283,7 @@
         <v>401</v>
       </c>
       <c r="H56" t="s">
-        <v>77</v>
+        <v>434</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.4">
@@ -3324,7 +3340,7 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.4">
       <c r="H60" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
   </sheetData>

--- a/assets/data.xlsx
+++ b/assets/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\t-bab_bkyk8w3\Documents\GitHub\seikosf24.github.io\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16871E41-9E31-4FCA-A4EE-5682033CFA8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13263202-81CC-49C1-A39C-4B90830BB8CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="437">
   <si>
     <t>ID</t>
   </si>
@@ -206,9 +206,6 @@
     <t>c/M3A</t>
   </si>
   <si>
-    <t>*一回150円</t>
-  </si>
-  <si>
     <t>M3B</t>
   </si>
   <si>
@@ -828,9 +825,6 @@
   </si>
   <si>
     <t>b/PHO</t>
-  </si>
-  <si>
-    <t>*しおり 一個150円円/写真L 一個150円/写真2L 一個200円</t>
   </si>
   <si>
     <t>TTC</t>
@@ -1342,10 +1336,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>*一回200円</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>1プレイ（3ゲーム）100円</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1412,6 +1402,53 @@
     <rPh sb="5" eb="6">
       <t>エン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5回200円</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一プレイ150円</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レジンキーホルダー 50~300円/ビスマス結晶 ~3000円/部誌 50円/テルミット鉄 100円</t>
+    <rPh sb="16" eb="17">
+      <t>エン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ケッショウ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>エン</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ブシ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>エン</t>
+    </rPh>
+    <rPh sb="44" eb="45">
+      <t>テツ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>エン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>クイズ＋お菓子 100円</t>
+    <rPh sb="5" eb="7">
+      <t>カシ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>エン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>しおり 一個150円</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1816,8 +1853,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H60" sqref="H60"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1957,7 +1994,7 @@
         <v>34</v>
       </c>
       <c r="H5" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.4">
@@ -1983,7 +2020,7 @@
         <v>40</v>
       </c>
       <c r="H6" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.4">
@@ -2009,7 +2046,7 @@
         <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.4">
@@ -2035,7 +2072,7 @@
         <v>53</v>
       </c>
       <c r="H8" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.4">
@@ -2061,241 +2098,241 @@
         <v>60</v>
       </c>
       <c r="H9" t="s">
-        <v>61</v>
+        <v>433</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10" t="s">
         <v>62</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>63</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>64</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>65</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>66</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>67</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>68</v>
-      </c>
-      <c r="H10" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" t="s">
         <v>70</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>71</v>
       </c>
-      <c r="C11" t="s">
+      <c r="D11" t="s">
         <v>72</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E11" t="s">
         <v>73</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>74</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>75</v>
       </c>
-      <c r="G11" t="s">
-        <v>76</v>
-      </c>
       <c r="H11" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12" t="s">
         <v>78</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>79</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
         <v>80</v>
       </c>
-      <c r="D12" t="s">
+      <c r="E12" t="s">
         <v>81</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>82</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>83</v>
       </c>
-      <c r="G12" t="s">
-        <v>84</v>
-      </c>
       <c r="H12" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B13" t="s">
         <v>85</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>86</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>87</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E13" t="s">
         <v>88</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>89</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>90</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>91</v>
-      </c>
-      <c r="H13" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" t="s">
+        <v>92</v>
+      </c>
+      <c r="B14" t="s">
         <v>93</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>94</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>95</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>96</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>97</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>98</v>
       </c>
-      <c r="G14" t="s">
-        <v>99</v>
-      </c>
       <c r="H14" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" t="s">
+        <v>99</v>
+      </c>
+      <c r="B15" t="s">
         <v>100</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>101</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>102</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>103</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>104</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>105</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>106</v>
-      </c>
-      <c r="H15" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16" t="s">
+        <v>107</v>
+      </c>
+      <c r="B16" t="s">
         <v>108</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>109</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>110</v>
       </c>
-      <c r="D16" t="s">
+      <c r="E16" t="s">
         <v>111</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>112</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>113</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>114</v>
-      </c>
-      <c r="H16" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" t="s">
+        <v>115</v>
+      </c>
+      <c r="B17" t="s">
         <v>116</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>117</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>118</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>119</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>120</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>121</v>
       </c>
-      <c r="G17" t="s">
-        <v>122</v>
-      </c>
       <c r="H17" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18" t="s">
+        <v>122</v>
+      </c>
+      <c r="B18" t="s">
         <v>123</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>124</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D18" t="s">
         <v>125</v>
       </c>
-      <c r="D18" t="s">
+      <c r="E18" t="s">
         <v>126</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>127</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>128</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>129</v>
-      </c>
-      <c r="H18" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.4">
@@ -2303,360 +2340,360 @@
         <v>58</v>
       </c>
       <c r="B19" t="s">
+        <v>130</v>
+      </c>
+      <c r="C19" t="s">
         <v>131</v>
       </c>
-      <c r="C19" t="s">
+      <c r="D19" t="s">
         <v>132</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E19" t="s">
+        <v>115</v>
+      </c>
+      <c r="F19" t="s">
         <v>133</v>
       </c>
-      <c r="E19" t="s">
-        <v>116</v>
-      </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>134</v>
       </c>
-      <c r="G19" t="s">
-        <v>135</v>
-      </c>
       <c r="H19" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20" t="s">
+        <v>135</v>
+      </c>
+      <c r="B20" t="s">
         <v>136</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>137</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>138</v>
       </c>
-      <c r="D20" t="s">
+      <c r="E20" t="s">
         <v>139</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>140</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>141</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>142</v>
-      </c>
-      <c r="H20" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21" t="s">
+        <v>143</v>
+      </c>
+      <c r="B21" t="s">
         <v>144</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>145</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>146</v>
       </c>
-      <c r="D21" t="s">
+      <c r="E21" t="s">
         <v>147</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>148</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>149</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>150</v>
-      </c>
-      <c r="H21" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A22" t="s">
+        <v>151</v>
+      </c>
+      <c r="B22" t="s">
         <v>152</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>153</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>154</v>
       </c>
-      <c r="D22" t="s">
+      <c r="E22" t="s">
         <v>155</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>156</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>157</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>158</v>
-      </c>
-      <c r="H22" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A23" t="s">
+        <v>159</v>
+      </c>
+      <c r="B23" t="s">
         <v>160</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>161</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>162</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
+        <v>77</v>
+      </c>
+      <c r="F23" t="s">
         <v>163</v>
       </c>
-      <c r="E23" t="s">
-        <v>78</v>
-      </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>164</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>165</v>
-      </c>
-      <c r="H23" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A24" t="s">
+        <v>166</v>
+      </c>
+      <c r="B24" t="s">
         <v>167</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>168</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>169</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>170</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>171</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>172</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>173</v>
-      </c>
-      <c r="H24" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A25" t="s">
+        <v>174</v>
+      </c>
+      <c r="B25" t="s">
         <v>175</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>176</v>
       </c>
-      <c r="C25" t="s">
+      <c r="D25" t="s">
         <v>177</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>178</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>179</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>180</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>181</v>
-      </c>
-      <c r="H25" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A26" t="s">
+        <v>182</v>
+      </c>
+      <c r="B26" t="s">
         <v>183</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>184</v>
       </c>
-      <c r="C26" t="s">
+      <c r="D26" t="s">
         <v>185</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
+        <v>107</v>
+      </c>
+      <c r="F26" t="s">
         <v>186</v>
       </c>
-      <c r="E26" t="s">
-        <v>108</v>
-      </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>187</v>
       </c>
-      <c r="G26" t="s">
-        <v>188</v>
-      </c>
       <c r="H26" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A27" t="s">
+        <v>188</v>
+      </c>
+      <c r="B27" t="s">
         <v>189</v>
       </c>
-      <c r="B27" t="s">
+      <c r="C27" t="s">
         <v>190</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>191</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>192</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>193</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>194</v>
       </c>
-      <c r="G27" t="s">
-        <v>195</v>
-      </c>
       <c r="H27" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A28" t="s">
+        <v>195</v>
+      </c>
+      <c r="B28" t="s">
         <v>196</v>
       </c>
-      <c r="B28" t="s">
+      <c r="C28" t="s">
         <v>197</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>198</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>199</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>200</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>201</v>
       </c>
-      <c r="G28" t="s">
-        <v>202</v>
-      </c>
       <c r="H28" t="s">
-        <v>77</v>
+        <v>434</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A29" t="s">
+        <v>202</v>
+      </c>
+      <c r="B29" t="s">
         <v>203</v>
       </c>
-      <c r="B29" t="s">
+      <c r="C29" t="s">
         <v>204</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>205</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E29" t="s">
         <v>206</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>207</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>208</v>
       </c>
-      <c r="G29" t="s">
-        <v>209</v>
-      </c>
       <c r="H29" t="s">
-        <v>77</v>
+        <v>435</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A30" t="s">
+        <v>209</v>
+      </c>
+      <c r="B30" t="s">
         <v>210</v>
       </c>
-      <c r="B30" t="s">
+      <c r="C30" t="s">
         <v>211</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>212</v>
       </c>
-      <c r="D30" t="s">
+      <c r="E30" t="s">
         <v>213</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>214</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>215</v>
       </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
         <v>216</v>
-      </c>
-      <c r="H30" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A31" t="s">
+        <v>217</v>
+      </c>
+      <c r="B31" t="s">
         <v>218</v>
       </c>
-      <c r="B31" t="s">
+      <c r="C31" t="s">
         <v>219</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>220</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E31" t="s">
         <v>221</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>222</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>223</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>224</v>
-      </c>
-      <c r="H31" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A32" t="s">
+        <v>225</v>
+      </c>
+      <c r="B32" t="s">
         <v>226</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
         <v>227</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>228</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E32" t="s">
+        <v>143</v>
+      </c>
+      <c r="F32" t="s">
         <v>229</v>
       </c>
-      <c r="E32" t="s">
-        <v>144</v>
-      </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>230</v>
-      </c>
-      <c r="G32" t="s">
-        <v>231</v>
       </c>
       <c r="H32" t="s">
         <v>22</v>
@@ -2664,415 +2701,415 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A33" t="s">
+        <v>231</v>
+      </c>
+      <c r="B33" t="s">
         <v>232</v>
       </c>
-      <c r="B33" t="s">
+      <c r="C33" t="s">
         <v>233</v>
       </c>
-      <c r="C33" t="s">
+      <c r="D33" t="s">
         <v>234</v>
       </c>
-      <c r="D33" t="s">
+      <c r="E33" t="s">
         <v>235</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>236</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>237</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>238</v>
-      </c>
-      <c r="H33" t="s">
-        <v>239</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A34" t="s">
+        <v>239</v>
+      </c>
+      <c r="B34" t="s">
         <v>240</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>241</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>242</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E34" t="s">
         <v>243</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>244</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>245</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
         <v>246</v>
-      </c>
-      <c r="H34" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A35" t="s">
+        <v>247</v>
+      </c>
+      <c r="B35" t="s">
         <v>248</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>249</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>250</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>251</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>252</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>253</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
         <v>254</v>
-      </c>
-      <c r="H35" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A36" t="s">
+        <v>255</v>
+      </c>
+      <c r="B36" t="s">
         <v>256</v>
       </c>
-      <c r="B36" t="s">
+      <c r="C36" t="s">
         <v>257</v>
       </c>
-      <c r="C36" t="s">
+      <c r="D36" t="s">
         <v>258</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
+        <v>61</v>
+      </c>
+      <c r="F36" t="s">
         <v>259</v>
       </c>
-      <c r="E36" t="s">
-        <v>62</v>
-      </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>260</v>
       </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
         <v>261</v>
-      </c>
-      <c r="H36" t="s">
-        <v>262</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A37" t="s">
+        <v>262</v>
+      </c>
+      <c r="B37" t="s">
         <v>263</v>
       </c>
-      <c r="B37" t="s">
+      <c r="C37" t="s">
+        <v>263</v>
+      </c>
+      <c r="D37" t="s">
         <v>264</v>
-      </c>
-      <c r="C37" t="s">
-        <v>264</v>
-      </c>
-      <c r="D37" t="s">
-        <v>265</v>
       </c>
       <c r="E37" t="s">
         <v>54</v>
       </c>
       <c r="F37" t="s">
+        <v>265</v>
+      </c>
+      <c r="G37" t="s">
         <v>266</v>
       </c>
-      <c r="G37" t="s">
-        <v>267</v>
-      </c>
       <c r="H37" t="s">
-        <v>268</v>
+        <v>436</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
+        <v>267</v>
+      </c>
+      <c r="B38" t="s">
+        <v>268</v>
+      </c>
+      <c r="C38" t="s">
         <v>269</v>
       </c>
-      <c r="B38" t="s">
+      <c r="D38" t="s">
         <v>270</v>
       </c>
-      <c r="C38" t="s">
+      <c r="E38" t="s">
         <v>271</v>
       </c>
-      <c r="D38" t="s">
+      <c r="F38" t="s">
         <v>272</v>
       </c>
-      <c r="E38" t="s">
+      <c r="G38" t="s">
         <v>273</v>
       </c>
-      <c r="F38" t="s">
+      <c r="H38" t="s">
         <v>274</v>
-      </c>
-      <c r="G38" t="s">
-        <v>275</v>
-      </c>
-      <c r="H38" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A39" t="s">
+        <v>275</v>
+      </c>
+      <c r="B39" t="s">
+        <v>276</v>
+      </c>
+      <c r="C39" t="s">
         <v>277</v>
       </c>
-      <c r="B39" t="s">
+      <c r="D39" t="s">
         <v>278</v>
       </c>
-      <c r="C39" t="s">
+      <c r="E39" t="s">
         <v>279</v>
       </c>
-      <c r="D39" t="s">
+      <c r="F39" t="s">
         <v>280</v>
       </c>
-      <c r="E39" t="s">
+      <c r="G39" t="s">
         <v>281</v>
       </c>
-      <c r="F39" t="s">
+      <c r="H39" t="s">
         <v>282</v>
-      </c>
-      <c r="G39" t="s">
-        <v>283</v>
-      </c>
-      <c r="H39" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A40" t="s">
+        <v>283</v>
+      </c>
+      <c r="B40" t="s">
+        <v>284</v>
+      </c>
+      <c r="C40" t="s">
         <v>285</v>
       </c>
-      <c r="B40" t="s">
+      <c r="D40" t="s">
         <v>286</v>
       </c>
-      <c r="C40" t="s">
+      <c r="E40" t="s">
+        <v>99</v>
+      </c>
+      <c r="F40" t="s">
         <v>287</v>
       </c>
-      <c r="D40" t="s">
+      <c r="G40" t="s">
         <v>288</v>
       </c>
-      <c r="E40" t="s">
-        <v>100</v>
-      </c>
-      <c r="F40" t="s">
-        <v>289</v>
-      </c>
-      <c r="G40" t="s">
-        <v>290</v>
-      </c>
       <c r="H40" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A41" t="s">
+        <v>289</v>
+      </c>
+      <c r="B41" t="s">
+        <v>290</v>
+      </c>
+      <c r="C41" t="s">
         <v>291</v>
       </c>
-      <c r="B41" t="s">
+      <c r="D41" t="s">
         <v>292</v>
       </c>
-      <c r="C41" t="s">
+      <c r="E41" t="s">
         <v>293</v>
       </c>
-      <c r="D41" t="s">
+      <c r="F41" t="s">
         <v>294</v>
       </c>
-      <c r="E41" t="s">
+      <c r="G41" t="s">
         <v>295</v>
       </c>
-      <c r="F41" t="s">
-        <v>296</v>
-      </c>
-      <c r="G41" t="s">
-        <v>297</v>
-      </c>
       <c r="H41" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A42" t="s">
+        <v>296</v>
+      </c>
+      <c r="B42" t="s">
+        <v>297</v>
+      </c>
+      <c r="C42" t="s">
         <v>298</v>
       </c>
-      <c r="B42" t="s">
+      <c r="D42" t="s">
         <v>299</v>
       </c>
-      <c r="C42" t="s">
+      <c r="E42" t="s">
         <v>300</v>
       </c>
-      <c r="D42" t="s">
+      <c r="F42" t="s">
         <v>301</v>
       </c>
-      <c r="E42" t="s">
+      <c r="G42" t="s">
         <v>302</v>
       </c>
-      <c r="F42" t="s">
-        <v>303</v>
-      </c>
-      <c r="G42" t="s">
-        <v>304</v>
-      </c>
       <c r="H42" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A43" t="s">
+        <v>303</v>
+      </c>
+      <c r="B43" t="s">
+        <v>304</v>
+      </c>
+      <c r="C43" t="s">
         <v>305</v>
       </c>
-      <c r="B43" t="s">
+      <c r="D43" t="s">
         <v>306</v>
       </c>
-      <c r="C43" t="s">
+      <c r="E43" t="s">
         <v>307</v>
       </c>
-      <c r="D43" t="s">
+      <c r="F43" t="s">
         <v>308</v>
       </c>
-      <c r="E43" t="s">
+      <c r="G43" t="s">
         <v>309</v>
       </c>
-      <c r="F43" t="s">
+      <c r="H43" t="s">
         <v>310</v>
-      </c>
-      <c r="G43" t="s">
-        <v>311</v>
-      </c>
-      <c r="H43" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A44" t="s">
+        <v>311</v>
+      </c>
+      <c r="B44" t="s">
+        <v>312</v>
+      </c>
+      <c r="C44" t="s">
         <v>313</v>
       </c>
-      <c r="B44" t="s">
+      <c r="D44" t="s">
         <v>314</v>
       </c>
-      <c r="C44" t="s">
+      <c r="E44" t="s">
         <v>315</v>
       </c>
-      <c r="D44" t="s">
+      <c r="F44" t="s">
         <v>316</v>
       </c>
-      <c r="E44" t="s">
+      <c r="G44" t="s">
         <v>317</v>
       </c>
-      <c r="F44" t="s">
+      <c r="H44" t="s">
         <v>318</v>
-      </c>
-      <c r="G44" t="s">
-        <v>319</v>
-      </c>
-      <c r="H44" t="s">
-        <v>320</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A45" t="s">
+        <v>319</v>
+      </c>
+      <c r="B45" t="s">
+        <v>320</v>
+      </c>
+      <c r="C45" t="s">
         <v>321</v>
       </c>
-      <c r="B45" t="s">
+      <c r="D45" t="s">
         <v>322</v>
       </c>
-      <c r="C45" t="s">
+      <c r="E45" t="s">
+        <v>84</v>
+      </c>
+      <c r="F45" t="s">
         <v>323</v>
       </c>
-      <c r="D45" t="s">
+      <c r="G45" t="s">
         <v>324</v>
       </c>
-      <c r="E45" t="s">
-        <v>85</v>
-      </c>
-      <c r="F45" t="s">
-        <v>325</v>
-      </c>
-      <c r="G45" t="s">
-        <v>326</v>
-      </c>
       <c r="H45" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A46" t="s">
+        <v>325</v>
+      </c>
+      <c r="B46" t="s">
+        <v>326</v>
+      </c>
+      <c r="C46" t="s">
         <v>327</v>
       </c>
-      <c r="B46" t="s">
+      <c r="D46" t="s">
         <v>328</v>
       </c>
-      <c r="C46" t="s">
+      <c r="E46" t="s">
         <v>329</v>
       </c>
-      <c r="D46" t="s">
+      <c r="F46" t="s">
         <v>330</v>
       </c>
-      <c r="E46" t="s">
+      <c r="G46" t="s">
         <v>331</v>
       </c>
-      <c r="F46" t="s">
+      <c r="H46" t="s">
         <v>332</v>
-      </c>
-      <c r="G46" t="s">
-        <v>333</v>
-      </c>
-      <c r="H46" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A47" t="s">
+        <v>333</v>
+      </c>
+      <c r="B47" t="s">
+        <v>334</v>
+      </c>
+      <c r="C47" t="s">
+        <v>327</v>
+      </c>
+      <c r="D47" t="s">
+        <v>328</v>
+      </c>
+      <c r="E47" t="s">
         <v>335</v>
       </c>
-      <c r="B47" t="s">
+      <c r="F47" t="s">
         <v>336</v>
       </c>
-      <c r="C47" t="s">
-        <v>329</v>
-      </c>
-      <c r="D47" t="s">
-        <v>330</v>
-      </c>
-      <c r="E47" t="s">
+      <c r="G47" t="s">
+        <v>331</v>
+      </c>
+      <c r="H47" t="s">
         <v>337</v>
-      </c>
-      <c r="F47" t="s">
-        <v>338</v>
-      </c>
-      <c r="G47" t="s">
-        <v>333</v>
-      </c>
-      <c r="H47" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A48" t="s">
+        <v>338</v>
+      </c>
+      <c r="B48" t="s">
+        <v>339</v>
+      </c>
+      <c r="C48" t="s">
         <v>340</v>
       </c>
-      <c r="B48" t="s">
+      <c r="D48" t="s">
         <v>341</v>
       </c>
-      <c r="C48" t="s">
+      <c r="E48" t="s">
         <v>342</v>
       </c>
-      <c r="D48" t="s">
+      <c r="F48" t="s">
         <v>343</v>
       </c>
-      <c r="E48" t="s">
+      <c r="G48" t="s">
         <v>344</v>
-      </c>
-      <c r="F48" t="s">
-        <v>345</v>
-      </c>
-      <c r="G48" t="s">
-        <v>346</v>
       </c>
       <c r="H48" t="s">
         <v>22</v>
@@ -3080,129 +3117,129 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A49" t="s">
+        <v>345</v>
+      </c>
+      <c r="B49" t="s">
+        <v>346</v>
+      </c>
+      <c r="C49" t="s">
         <v>347</v>
       </c>
-      <c r="B49" t="s">
+      <c r="D49" t="s">
         <v>348</v>
       </c>
-      <c r="C49" t="s">
+      <c r="E49" t="s">
         <v>349</v>
       </c>
-      <c r="D49" t="s">
+      <c r="F49" t="s">
         <v>350</v>
       </c>
-      <c r="E49" t="s">
+      <c r="G49" t="s">
         <v>351</v>
       </c>
-      <c r="F49" t="s">
-        <v>352</v>
-      </c>
-      <c r="G49" t="s">
-        <v>353</v>
-      </c>
       <c r="H49" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
+        <v>352</v>
+      </c>
+      <c r="B50" t="s">
+        <v>353</v>
+      </c>
+      <c r="C50" t="s">
         <v>354</v>
       </c>
-      <c r="B50" t="s">
+      <c r="D50" t="s">
         <v>355</v>
       </c>
-      <c r="C50" t="s">
+      <c r="E50" t="s">
         <v>356</v>
-      </c>
-      <c r="D50" t="s">
-        <v>357</v>
-      </c>
-      <c r="E50" t="s">
-        <v>358</v>
       </c>
       <c r="F50" t="s">
         <v>46</v>
       </c>
       <c r="G50" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="H50" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B51" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="C51" t="s">
         <v>25</v>
       </c>
       <c r="D51" t="s">
+        <v>361</v>
+      </c>
+      <c r="E51" t="s">
+        <v>362</v>
+      </c>
+      <c r="F51" t="s">
         <v>363</v>
       </c>
-      <c r="E51" t="s">
+      <c r="G51" t="s">
         <v>364</v>
       </c>
-      <c r="F51" t="s">
-        <v>365</v>
-      </c>
-      <c r="G51" t="s">
-        <v>366</v>
-      </c>
       <c r="H51" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
+        <v>365</v>
+      </c>
+      <c r="B52" t="s">
+        <v>366</v>
+      </c>
+      <c r="C52" t="s">
+        <v>366</v>
+      </c>
+      <c r="D52" t="s">
         <v>367</v>
       </c>
-      <c r="B52" t="s">
+      <c r="E52" t="s">
         <v>368</v>
       </c>
-      <c r="C52" t="s">
-        <v>368</v>
-      </c>
-      <c r="D52" t="s">
+      <c r="F52" t="s">
         <v>369</v>
       </c>
-      <c r="E52" t="s">
+      <c r="G52" t="s">
         <v>370</v>
       </c>
-      <c r="F52" t="s">
+      <c r="H52" t="s">
         <v>371</v>
-      </c>
-      <c r="G52" t="s">
-        <v>372</v>
-      </c>
-      <c r="H52" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
+        <v>372</v>
+      </c>
+      <c r="B53" t="s">
+        <v>373</v>
+      </c>
+      <c r="C53" t="s">
         <v>374</v>
       </c>
-      <c r="B53" t="s">
+      <c r="D53" t="s">
         <v>375</v>
       </c>
-      <c r="C53" t="s">
+      <c r="E53" t="s">
         <v>376</v>
       </c>
-      <c r="D53" t="s">
+      <c r="F53" t="s">
         <v>377</v>
       </c>
-      <c r="E53" t="s">
+      <c r="G53" t="s">
         <v>378</v>
-      </c>
-      <c r="F53" t="s">
-        <v>379</v>
-      </c>
-      <c r="G53" t="s">
-        <v>380</v>
       </c>
       <c r="H53" t="s">
         <v>22</v>
@@ -3210,137 +3247,137 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
+        <v>379</v>
+      </c>
+      <c r="B54" t="s">
+        <v>380</v>
+      </c>
+      <c r="C54" t="s">
         <v>381</v>
       </c>
-      <c r="B54" t="s">
+      <c r="D54" t="s">
         <v>382</v>
       </c>
-      <c r="C54" t="s">
+      <c r="E54" t="s">
         <v>383</v>
       </c>
-      <c r="D54" t="s">
+      <c r="F54" t="s">
         <v>384</v>
       </c>
-      <c r="E54" t="s">
+      <c r="G54" t="s">
         <v>385</v>
       </c>
-      <c r="F54" t="s">
-        <v>386</v>
-      </c>
-      <c r="G54" t="s">
-        <v>387</v>
-      </c>
       <c r="H54" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
+        <v>386</v>
+      </c>
+      <c r="B55" t="s">
+        <v>387</v>
+      </c>
+      <c r="C55" t="s">
         <v>388</v>
       </c>
-      <c r="B55" t="s">
+      <c r="D55" t="s">
         <v>389</v>
       </c>
-      <c r="C55" t="s">
+      <c r="E55" t="s">
         <v>390</v>
       </c>
-      <c r="D55" t="s">
+      <c r="F55" t="s">
         <v>391</v>
       </c>
-      <c r="E55" t="s">
+      <c r="G55" t="s">
         <v>392</v>
       </c>
-      <c r="F55" t="s">
-        <v>393</v>
-      </c>
-      <c r="G55" t="s">
-        <v>394</v>
-      </c>
       <c r="H55" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
+        <v>393</v>
+      </c>
+      <c r="B56" t="s">
+        <v>394</v>
+      </c>
+      <c r="C56" t="s">
         <v>395</v>
       </c>
-      <c r="B56" t="s">
+      <c r="D56" t="s">
         <v>396</v>
       </c>
-      <c r="C56" t="s">
+      <c r="E56" t="s">
         <v>397</v>
       </c>
-      <c r="D56" t="s">
+      <c r="F56" t="s">
         <v>398</v>
       </c>
-      <c r="E56" t="s">
+      <c r="G56" t="s">
         <v>399</v>
       </c>
-      <c r="F56" t="s">
-        <v>400</v>
-      </c>
-      <c r="G56" t="s">
-        <v>401</v>
-      </c>
       <c r="H56" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
+        <v>400</v>
+      </c>
+      <c r="B57" t="s">
+        <v>401</v>
+      </c>
+      <c r="C57" t="s">
         <v>402</v>
       </c>
-      <c r="B57" t="s">
+      <c r="D57" t="s">
         <v>403</v>
       </c>
-      <c r="C57" t="s">
+      <c r="E57" t="s">
         <v>404</v>
       </c>
-      <c r="D57" t="s">
+      <c r="F57" t="s">
         <v>405</v>
       </c>
-      <c r="E57" t="s">
+      <c r="G57" t="s">
         <v>406</v>
       </c>
-      <c r="F57" t="s">
-        <v>407</v>
-      </c>
-      <c r="G57" t="s">
-        <v>408</v>
-      </c>
       <c r="H57" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A58" t="s">
+        <v>407</v>
+      </c>
+      <c r="B58" t="s">
+        <v>408</v>
+      </c>
+      <c r="C58" t="s">
         <v>409</v>
       </c>
-      <c r="B58" t="s">
+      <c r="D58" t="s">
         <v>410</v>
       </c>
-      <c r="C58" t="s">
+      <c r="E58" t="s">
         <v>411</v>
       </c>
-      <c r="D58" t="s">
+      <c r="F58" t="s">
         <v>412</v>
       </c>
-      <c r="E58" t="s">
+      <c r="G58" t="s">
         <v>413</v>
       </c>
-      <c r="F58" t="s">
-        <v>414</v>
-      </c>
-      <c r="G58" t="s">
-        <v>415</v>
-      </c>
       <c r="H58" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.4">
       <c r="H60" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
   </sheetData>
